--- a/old_database/crypto/library/library_3067.xlsx
+++ b/old_database/crypto/library/library_3067.xlsx
@@ -46,7 +46,7 @@
     <t>07.17.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3067</t>
   </si>
   <si>
     <t>08.02.18</t>
